--- a/02_MasterWifoMannheim/99_Backup/Course90.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course90.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2B59D2BFD32051265F592811595DE0B4503BF879" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD6C8666-69D4-41B9-BACD-977FB226C075}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 514 Process Mining and Analytics</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In this course, concepts and methods for process analytics and process mining are theoretically presented and practically applied. This includes methods for process mining (process discovery, conformance checking, process enhancement), methods for process analytics (semantic checks, process matching, etc.), and methods for data mining applied to process data (clustering, classification, anomaly detection, etc.). The lectures will be accompanied by exercise sessions, where the concepts and methods will be practically applied using manual computations, standard process mining and data mining tools as well as light-weight programming. In addition, students will have to participate in a case study, where they will apply process mining methods in a practical business case.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>After completing this course, you will be able to:  Recognize the significance of process analytics and process mining  Analyze process models and process logs with suitable methods and tools  Know and apply the most important methods of process discovery and compliance checking  Suggest data-based optimizations of process behavior</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration: yes, limited to 80 participants</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Students will need to enrol using the Portal2 system.</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 2 Exercise 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>80% written exam (60 min.) 20% group assignment (mandatory)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Jana-Rebecca Rehse Prof. Dr. Han van der Aa</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.Sc. MMDS</t>
-  </si>
-  <si>
-    <t>IS 510, Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,146 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="215.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 514 Process Mining and Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In this course, concepts and methods for process analytics and process mining are theoretically presented and practically applied. This includes methods for process mining (process discovery, conformance checking, process enhancement), methods for process analytics (semantic checks, process matching, etc.), and methods for data mining applied to process data (clustering, classification, anomaly detection, etc.). The lectures will be accompanied by exercise sessions, where the concepts and methods will be practically applied using manual computations, standard process mining and data mining tools as well as light-weight programming. In addition, students will have to participate in a case study, where they will apply process mining methods in a practical business case.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>After completing this course, you will be able to:  Recognize the significance of process analytics and process mining  Analyze process models and process logs with suitable methods and tools  Know and apply the most important methods of process discovery and compliance checking  Suggest data-based optimizations of process behavior</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 510, Software Development Fundamentals (SDF), Foundations of Programming Languages (FPL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration: yes, limited to 80 participants</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Students will need to enrol using the Portal2 system.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 2 Exercise 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80% written exam (60 min.) 20% group assignment (mandatory)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Jana-Rebecca Rehse Prof. Dr. Han van der Aa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., M.Sc. MMDS</t>
+        </is>
       </c>
     </row>
   </sheetData>
